--- a/Mifos Automation Excels/Client/2699-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-REPAY-AccCL1stFEB-DISTR2on31JAN-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2699-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-LATE-REPAY-AccCL1stFEB-DISTR2on31JAN-Newcreateloan1.xlsx
@@ -207,7 +207,7 @@
     <t>verifyrepayment</t>
   </si>
   <si>
-    <t>Accounting has been closed for this branch as of `2014-02-01`.</t>
+    <t>The disbursement date cannot be before last transaction date</t>
   </si>
 </sst>
 </file>
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
